--- a/clean_data/City Data.xlsx
+++ b/clean_data/City Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e69a25b90265608/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NSS\nss_capstone\clean_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{DDA9B662-E6AE-441D-AADC-C0CA92E2B1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3244327F-79BA-4FFE-9D87-4C7901B141EF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE23A07-A911-482D-932D-59ECFA80539B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="2790" windowWidth="21600" windowHeight="11295" xr2:uid="{9CAD487D-5CBF-43C3-AD5E-4524E0E2BA80}"/>
+    <workbookView xWindow="6015" yWindow="6960" windowWidth="21600" windowHeight="11295" xr2:uid="{9CAD487D-5CBF-43C3-AD5E-4524E0E2BA80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -251,9 +251,6 @@
     <t>"2300566145"</t>
   </si>
   <si>
-    <t>Scarborugh</t>
-  </si>
-  <si>
     <t>ME</t>
   </si>
   <si>
@@ -354,6 +351,9 @@
   </si>
   <si>
     <t>Westerly</t>
+  </si>
+  <si>
+    <t>Scarborough</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
   <dimension ref="A1:BO13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,13 +942,13 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
         <v>71</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
       </c>
       <c r="D2" s="2">
         <v>23218</v>
@@ -1145,13 +1145,13 @@
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
         <v>74</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
       </c>
       <c r="D3" s="2">
         <v>62896</v>
@@ -1343,18 +1343,18 @@
         <v>31.37</v>
       </c>
       <c r="BO3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
       </c>
       <c r="D4" s="2">
         <v>64610</v>
@@ -1546,18 +1546,18 @@
         <v>24.52</v>
       </c>
       <c r="BO4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
         <v>83</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
       </c>
       <c r="D5" s="2">
         <v>18953</v>
@@ -1749,18 +1749,18 @@
         <v>6.65</v>
       </c>
       <c r="BO5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
       </c>
       <c r="D6" s="2">
         <v>8044</v>
@@ -1883,7 +1883,7 @@
         <v>20943</v>
       </c>
       <c r="AR6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS6" s="2">
         <v>56346</v>
@@ -1952,18 +1952,18 @@
         <v>36.450000000000003</v>
       </c>
       <c r="BO6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
         <v>87</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
       </c>
       <c r="D7" s="2">
         <v>6661</v>
@@ -2038,7 +2038,7 @@
         <v>850</v>
       </c>
       <c r="AB7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC7" t="s">
         <v>67</v>
@@ -2155,18 +2155,18 @@
         <v>57.47</v>
       </c>
       <c r="BO7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
         <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
       </c>
       <c r="D8" s="2">
         <v>8415</v>
@@ -2289,7 +2289,7 @@
         <v>11188</v>
       </c>
       <c r="AR8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS8" s="2">
         <v>39393</v>
@@ -2358,18 +2358,18 @@
         <v>42.95</v>
       </c>
       <c r="BO8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
         <v>87</v>
-      </c>
-      <c r="C9" t="s">
-        <v>88</v>
       </c>
       <c r="D9" s="2">
         <v>14504</v>
@@ -2561,18 +2561,18 @@
         <v>13.89</v>
       </c>
       <c r="BO9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
         <v>87</v>
-      </c>
-      <c r="C10" t="s">
-        <v>88</v>
       </c>
       <c r="D10" s="2">
         <v>27802</v>
@@ -2764,18 +2764,18 @@
         <v>43.14</v>
       </c>
       <c r="BO10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
         <v>87</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
       </c>
       <c r="D11" s="2">
         <v>8144</v>
@@ -2898,7 +2898,7 @@
         <v>68</v>
       </c>
       <c r="AR11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS11" s="2">
         <v>114329</v>
@@ -2967,18 +2967,18 @@
         <v>40.29</v>
       </c>
       <c r="BO11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
         <v>87</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
       </c>
       <c r="D12" s="2">
         <v>32056</v>
@@ -3170,18 +3170,18 @@
         <v>56.45</v>
       </c>
       <c r="BO12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
         <v>87</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
       </c>
       <c r="D13" s="2">
         <v>23298</v>
@@ -3373,7 +3373,7 @@
         <v>29.52</v>
       </c>
       <c r="BO13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
